--- a/data/Material Cost_global_2018-2022.xlsx
+++ b/data/Material Cost_global_2018-2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mt1-my.sharepoint.com/personal/marc_roeoesli_mt_com/Documents/02_Projects/1c_AI_projects/5_OST_GenAI_Challenge/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Spectre\Bildung\OST_2021_2025\Semester_7\GenAI\AIChallange\genai-challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{E183015F-0A08-4707-B5BA-234AA5048686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81650F12-5531-4C89-B490-79DFBAA49410}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602CB30-36A8-411A-8CEF-A60597203A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DED9887-3D22-4DEA-8261-09E2EACC1CB2}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15720" xr2:uid="{8DED9887-3D22-4DEA-8261-09E2EACC1CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Cost per Unit ($)</t>
   </si>
@@ -213,13 +213,16 @@
   </si>
   <si>
     <t>The costs were unchanged in the years from 2018 to 2023.</t>
+  </si>
+  <si>
+    <t>Meterial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,10 +347,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,30 +669,32 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5" ht="21" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="21" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,7 +725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="21" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -741,7 +742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="21" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -758,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="21" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -775,7 +776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="21" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -792,7 +793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="21" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -809,7 +810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="21" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -826,7 +827,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="21" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -843,7 +844,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -860,7 +861,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="21" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -877,7 +878,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="21" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -894,7 +895,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="21" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -911,7 +912,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="21" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -928,7 +929,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="21" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -945,7 +946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="21" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -962,7 +963,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="21" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -979,7 +980,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="21" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -996,7 +997,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="21" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="21" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="21" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="21" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="21" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="21" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="21" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="21" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="21" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="21" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="21" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="21" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="21" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="21" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="21" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="21" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="21" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="21" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="21" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="21" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="21" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="21" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="21" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -1387,10 +1388,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="21" thickBot="1">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="21" thickBot="1">
       <c r="C45" s="2"/>
     </row>
   </sheetData>
